--- a/data/trans_media/P34C3_2023-Habitat-trans_media.xlsx
+++ b/data/trans_media/P34C3_2023-Habitat-trans_media.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -696,7 +696,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
